--- a/data/RaccoonLikelyhoodLarvaeInJar/real data.xlsx
+++ b/data/RaccoonLikelyhoodLarvaeInJar/real data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindsay\Dropbox\Raccoon\larvae\oyster\larvae survival stats\GitHub\RacoonOlyLarvalSurvival\data\RaccoonLikelyhoodLarvaeInJar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994DDE8E-BD8C-4213-B388-E19B5C977ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE389450-B252-459F-9CFC-D5815F1528D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9BF2BB65-623F-4B0F-A177-173AEA287439}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9BF2BB65-623F-4B0F-A177-173AEA287439}"/>
   </bookViews>
   <sheets>
     <sheet name="real data" sheetId="6" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B3E88-730D-4C30-8A6A-C2D30027C2A2}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
